--- a/SIRS MODELS/galicia/25_03_2020.xlsx
+++ b/SIRS MODELS/galicia/25_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70092A5-8A13-4F97-99B5-AF09C7BC9945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506A3041-7D14-431B-A0D1-40E8D3AD53BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8129,7 +8129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
